--- a/template/b2c/template_b2c_olga1.xlsx
+++ b/template/b2c/template_b2c_olga1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>SV_5</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Olga1</t>
+  </si>
+  <si>
+    <t>Olga</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,10 +440,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="E6" s="1"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="E7" s="1"/>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="146.25" customHeight="1">
       <c r="E8" s="1"/>
